--- a/BackTest/2019-10-17 BackTest ADA.xlsx
+++ b/BackTest/2019-10-17 BackTest ADA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.200000000000017</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>58.41999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.40000000000002</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
       <c r="L13" t="n">
         <v>58.39999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.40000000000002</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L14" t="n">
         <v>58.41999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L15" t="n">
         <v>58.45</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>40</v>
+      </c>
       <c r="L16" t="n">
         <v>58.48</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>58.52000000000002</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.700000000000024</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>58.54000000000002</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.700000000000024</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>58.56000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.700000000000024</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>58.59000000000003</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.700000000000024</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-20</v>
+      </c>
       <c r="L21" t="n">
         <v>58.62000000000004</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.700000000000024</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>58.61000000000003</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.700000000000024</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>58.62000000000004</v>
@@ -1466,7 +1488,7 @@
         <v>1.900000000000027</v>
       </c>
       <c r="K24" t="n">
-        <v>6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L24" t="n">
         <v>58.61000000000003</v>
@@ -1515,7 +1537,7 @@
         <v>1.900000000000027</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L25" t="n">
         <v>58.58000000000003</v>
@@ -1564,7 +1586,7 @@
         <v>2.000000000000028</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L26" t="n">
         <v>58.54000000000002</v>
@@ -1613,7 +1635,7 @@
         <v>2.300000000000033</v>
       </c>
       <c r="K27" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>58.53000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>2.900000000000034</v>
       </c>
       <c r="K28" t="n">
-        <v>-18.18181818181792</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L28" t="n">
         <v>58.47000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>2.900000000000034</v>
       </c>
       <c r="K29" t="n">
-        <v>-18.18181818181792</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L29" t="n">
         <v>58.41000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>3.200000000000031</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L30" t="n">
         <v>58.38000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>3.400000000000027</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.692307692307482</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L31" t="n">
         <v>58.33000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>3.500000000000028</v>
       </c>
       <c r="K32" t="n">
-        <v>-30.43478260869563</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>58.27</v>
@@ -1911,7 +1933,7 @@
         <v>3.500000000000028</v>
       </c>
       <c r="K33" t="n">
-        <v>-23.80952380952371</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L33" t="n">
         <v>58.21</v>
